--- a/Data/3-4_FeSources/FeSources.xlsx
+++ b/Data/3-4_FeSources/FeSources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\18_FeSources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-4_FeSources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D9A18D-45FD-479B-8496-973F64667A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{C5D9A18D-45FD-479B-8496-973F64667A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1605B880-BFE2-4E29-BDE7-735EC32A276F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{A5D4C3F6-9CE9-44C0-BBBD-467D1E450A34}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>Source</t>
   </si>
@@ -214,6 +214,18 @@
   </si>
   <si>
     <t>ONS clustering local authorities</t>
+  </si>
+  <si>
+    <t>Labour Market Profile - Nomis - Official Census and Labour Market Statistics (nomisweb.co.uk)</t>
+  </si>
+  <si>
+    <t>ONS Labour market profiles</t>
+  </si>
+  <si>
+    <t>Population, employment, and qualification data by Local Authority.</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.nomisweb.co.uk/reports/lmp/la/contents.aspx'&gt;ONS&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -342,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -371,6 +383,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -686,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455C0F38-06FA-4C4D-8065-41AFD4764DD8}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -826,6 +839,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -834,10 +861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACE25F3-3BBD-4BFB-8DFC-B2B552BE112F}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -845,7 +872,7 @@
     <col min="1" max="1" width="32.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -853,7 +880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -861,7 +888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
@@ -869,7 +896,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -877,7 +904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
@@ -885,7 +912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -893,7 +920,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
@@ -901,7 +928,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
@@ -909,7 +936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>34</v>
       </c>
@@ -917,7 +944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -925,15 +952,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="C11" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
@@ -943,6 +973,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{3731D0DC-6DB4-41DD-997B-9CA96274CC1D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/3-4_FeSources/FeSources.xlsx
+++ b/Data/3-4_FeSources/FeSources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-4_FeSources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{C5D9A18D-45FD-479B-8496-973F64667A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1605B880-BFE2-4E29-BDE7-735EC32A276F}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{C5D9A18D-45FD-479B-8496-973F64667A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{532DE205-F901-41E6-A1A5-6967F84EC043}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{A5D4C3F6-9CE9-44C0-BBBD-467D1E450A34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{A5D4C3F6-9CE9-44C0-BBBD-467D1E450A34}"/>
   </bookViews>
   <sheets>
     <sheet name="Tools" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>Source</t>
   </si>
@@ -216,9 +216,6 @@
     <t>ONS clustering local authorities</t>
   </si>
   <si>
-    <t>Labour Market Profile - Nomis - Official Census and Labour Market Statistics (nomisweb.co.uk)</t>
-  </si>
-  <si>
     <t>ONS Labour market profiles</t>
   </si>
   <si>
@@ -226,6 +223,12 @@
   </si>
   <si>
     <t>&lt;a href='https://www.nomisweb.co.uk/reports/lmp/la/contents.aspx'&gt;ONS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.gov.uk/government/publications/designated-employer-representative-bodies/notice-of-designated-employer-representative-bodies'&gt;Employer representative bodies&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of links to published Local skills improvement plans. </t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455C0F38-06FA-4C4D-8065-41AFD4764DD8}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -841,13 +844,13 @@
     </row>
     <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -861,10 +864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACE25F3-3BBD-4BFB-8DFC-B2B552BE112F}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -952,30 +955,34 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{3731D0DC-6DB4-41DD-997B-9CA96274CC1D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/3-4_FeSources/FeSources.xlsx
+++ b/Data/3-4_FeSources/FeSources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-4_FeSources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{C5D9A18D-45FD-479B-8496-973F64667A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{532DE205-F901-41E6-A1A5-6967F84EC043}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{C5D9A18D-45FD-479B-8496-973F64667A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8004607A-82FE-4E14-A7CF-8BB8D746A44D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{A5D4C3F6-9CE9-44C0-BBBD-467D1E450A34}"/>
   </bookViews>
@@ -225,10 +225,10 @@
     <t>&lt;a href='https://www.nomisweb.co.uk/reports/lmp/la/contents.aspx'&gt;ONS&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href='https://www.gov.uk/government/publications/designated-employer-representative-bodies/notice-of-designated-employer-representative-bodies'&gt;Employer representative bodies&lt;/a&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">List of links to published Local skills improvement plans. </t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.gov.uk/government/publications/designated-employer-representative-bodies/notice-of-designated-employer-representative-bodies'&gt;Department for Education (gov.uk)&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -867,7 +867,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,10 +957,10 @@
     </row>
     <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
         <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">

--- a/Data/3-4_FeSources/FeSources.xlsx
+++ b/Data/3-4_FeSources/FeSources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-4_FeSources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{C5D9A18D-45FD-479B-8496-973F64667A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8004607A-82FE-4E14-A7CF-8BB8D746A44D}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{FCD64274-F6DB-482E-8B8A-ECDC214852D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6D09820-8DBE-4125-ADEF-280FC615BE0F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{A5D4C3F6-9CE9-44C0-BBBD-467D1E450A34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{A5D4C3F6-9CE9-44C0-BBBD-467D1E450A34}"/>
   </bookViews>
   <sheets>
     <sheet name="Tools" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>Source</t>
   </si>
@@ -180,21 +180,6 @@
     <t>&lt;a href='https://www.gov.uk/government/publications/neet-and-participation-local-authority-figures'&gt;NEET and participation: local authority figures - GOV.UK (www.gov.uk)&lt;/a&gt;</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ESS 2023 - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Coming Summer 2023</t>
-    </r>
-  </si>
-  <si>
     <t>Employer Skills Survey including hard-to-fill and skill-shortage vacancies, employer skills needed in next 12 months, and percent of employers providing training</t>
   </si>
   <si>
@@ -229,13 +214,46 @@
   </si>
   <si>
     <t>&lt;a href='https://www.gov.uk/government/publications/designated-employer-representative-bodies/notice-of-designated-employer-representative-bodies'&gt;Department for Education (gov.uk)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/find-statistics/employer-skills-survey/2022'&gt;Department for Education (gov.uk)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.gov.uk/government/publications/ai-analysis-of-local-skills-improvement-plans'&gt;Department for Education (gov.uk)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>UFS AI analysis of local skills improvement plans</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.gov.uk/government/publications/the-impact-of-ai-on-uk-jobs-and-training'&gt;Department for Education (gov.uk)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>UFS impact of AI on UK jobs and training</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://explore-local-statistics.beta.ons.gov.uk/'&gt;ONS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>ONS Explore local statistics</t>
+  </si>
+  <si>
+    <t>Find, compare and visualise a range statistics about places in the United Kingdom down to ward level</t>
+  </si>
+  <si>
+    <t>UFS dashboards and data</t>
+  </si>
+  <si>
+    <t>Data and research to help understand current and emerging skills gaps and the type of jobs people take after training.</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.gov.uk/government/collections/job-and-skills-data'&gt;DfE&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +305,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0B0C0C"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -357,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -387,6 +417,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -406,9 +440,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -446,7 +480,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -552,7 +586,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -694,7 +728,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -702,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455C0F38-06FA-4C4D-8065-41AFD4764DD8}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -816,13 +850,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -830,13 +864,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -844,15 +878,43 @@
     </row>
     <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
       <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -864,10 +926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACE25F3-3BBD-4BFB-8DFC-B2B552BE112F}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,26 +1019,44 @@
     </row>
     <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
         <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="6" t="s">
         <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
       </c>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Data/3-4_FeSources/FeSources.xlsx
+++ b/Data/3-4_FeSources/FeSources.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-4_FeSources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{FCD64274-F6DB-482E-8B8A-ECDC214852D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6D09820-8DBE-4125-ADEF-280FC615BE0F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95DD2B3C-5CAC-43D4-AB03-3CFA2B7C1C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{A5D4C3F6-9CE9-44C0-BBBD-467D1E450A34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" firstSheet="2" activeTab="2" xr2:uid="{A5D4C3F6-9CE9-44C0-BBBD-467D1E450A34}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tools" sheetId="1" r:id="rId1"/>
-    <sheet name="Sources" sheetId="2" r:id="rId2"/>
+    <sheet name="Reports" sheetId="3" r:id="rId1"/>
+    <sheet name="Tools" sheetId="1" r:id="rId2"/>
+    <sheet name="Sources" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,45 +38,204 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>Source​</t>
+  </si>
+  <si>
+    <t>AI analysis of local skills improvement plans from DfE's Unit for Future Skills</t>
+  </si>
+  <si>
+    <t>A report analysing the pilot project which used experimental AI extraction and generation techniques on local skills improvement plans (LSIPs).</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.gov.uk/government/publications/ai-analysis-of-local-skills-improvement-plans'&gt;Department for Education (gov.uk)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The impact of AI on UK jobs and training from DfE's Unit for Future Skills</t>
+  </si>
+  <si>
+    <t>Report showing the impact of artificial intelligence (AI) on areas within the UK labour market and education.</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.gov.uk/government/publications/the-impact-of-ai-on-uk-jobs-and-training'&gt;Department for Education (gov.uk)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Links to published Local skills improvement plans. </t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.gov.uk/government/publications/designated-employer-representative-bodies/notice-of-designated-employer-representative-bodies'&gt;Department for Education (gov.uk)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Breakdowns, timeframes, populations available</t>
+  </si>
   <si>
     <t>Source</t>
   </si>
   <si>
-    <t>Access</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Breakdowns, timeframes, populations available</t>
+    <t>UFS dashboards and data</t>
+  </si>
+  <si>
+    <t>Data and research to help understand current and emerging skills gaps and the type of jobs people take after training.</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.gov.uk/government/collections/job-and-skills-data'&gt;DfE&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Subnational indicators explorer </t>
   </si>
   <si>
+    <t>Compare a local authority and the UK average (median) local authority by different indicators, such as weekly pay and healthy life expectancy.</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.ons.gov.uk/peoplepopulationandcommunity/wellbeing/articles/subnationalindicatorsexplorer/2022-01-06'&gt;ONS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>LA schools scorecard</t>
+  </si>
+  <si>
+    <t>Scorecards display a snapshot of the progress each local authority across England is making towards ensuring there are sufficient, good quality, school places.</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://department-for-education.shinyapps.io/la-school-places-scorecards/?_inputs_&amp;navbar=%22la_scorecards%22&amp;linkQuantityTab=0&amp;linkPreferenceTab=0&amp;phase_choice=%22Primary%22&amp;tabs_tech_notes=%22Quantity%22&amp;LA_choice=%22Barnet%22&amp;linkQualityTab=0&amp;tabs=%22cost%22&amp;linklascorecardsTab=0&amp;linkForecastTab=0&amp;linkCostTab=0'&gt;DfE&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>ONS area information</t>
+  </si>
+  <si>
+    <t>Get data about people and the communities they live in, includes population, identity, housing, people in or out of work, education and health.</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.ons.gov.uk/visualisations/areas/'&gt;ONS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Data​</t>
+  </si>
+  <si>
+    <t>Job quality indicator tables</t>
+  </si>
+  <si>
+    <t>Covering UK by country, region and local authority</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.beta.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/qualityworkcomponentandcompositetablesuk2018'&gt;Job quality indicator tables, UK - Office for National Statistics (ons.gov.uk)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Higeher Education destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The data shows what people did after finishing their degree, by ethnicity. It includes people who graduated 1, 3, 5, and 10 years ago (up to March 2020) and the median earnings of graduates in employment. </t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.ethnicity-facts-figures.service.gov.uk/education-skills-and-training/after-education/destinations-and-earnings-of-graduates-after-higher-education/latest'&gt;Destinations and earnings of graduates after higher education - GOV.UK Ethnicity facts and figures (ethnicity-facts-figures.service.gov.uk)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Region of residence after HE</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.hesa.ac.uk/news/16-06-2022/sb263-higher-education-graduate-outcomes-statistics/salary'&gt;Graduate Outcomes 2019/20: Summary Statistics - Graduate salaries and work locations | HESA&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Further Education destination</t>
+  </si>
+  <si>
+    <t>The data shows what people did after finishing their further education qualification by local enterprise partnership, provision, level of learning and sector subject area</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/fast-track/b8aabe3c-5f3c-48b5-929c-8615d57d1d98'&gt;Explore Education Statistics&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Apprenticeship destination</t>
+  </si>
+  <si>
+    <t>The data shows what people did after finishing their apprenticeship</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/further-education-outcome-based-success-measures'&gt;Explore Education Statistics&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Gross value added (GVA) per hour worked </t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/labourproductivity/datasets/subregionalproductivitylabourproductivitygvaperhourworkedandgvaperfilledjobindicesbylocalenterprisepartnership'&gt;Subregional productivity: labour productivity indices by economic enterprise region - Office for National Statistics (ons.gov.uk)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Median wage</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.nomisweb.co.uk/datasets/ashe'&gt;ASHE Nomis&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Population by age</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.nomisweb.co.uk/datasets/apsnew'&gt;APS Nomis&lt;/a&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>Young people not in education, employment or training</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (NEET)</t>
+    </r>
+  </si>
+  <si>
+    <t>Data showing the proportions of 16- and 17-year-olds in education and training and an estimate of those not in education, employment or training (NEET).</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.gov.uk/government/publications/neet-and-participation-local-authority-figures'&gt;NEET and participation: local authority figures - GOV.UK (www.gov.uk)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employer Skills Survey (ESS) 2022 </t>
+  </si>
+  <si>
+    <t>Including hard-to-fill and skill-shortage vacancies, employer skills needed in next 12 months, and percent of employers providing training</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/find-statistics/employer-skills-survey/2022'&gt;Department for Education (gov.uk)&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>Association of Colleges (AoC)</t>
   </si>
   <si>
+    <t>Lists useful data sources related to colleges</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.aoc.co.uk/research-unit/data-sources'&gt;Association of Colleges (AoC)&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>Census</t>
   </si>
   <si>
+    <t xml:space="preserve">Contains a range of topics including labour market and education by local authority. </t>
+  </si>
+  <si>
+    <t>&lt;a href='https://census.gov.uk/local-authorities'&gt;ONS&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>NOMIS</t>
   </si>
   <si>
-    <t>Compare a local authority and the UK average (median) local authority by different indicators, such as weekly pay and healthy life expectancy.</t>
-  </si>
-  <si>
-    <t>Publicly available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contains a range of topics including labour market and education by local authority. </t>
-  </si>
-  <si>
     <t>Query labour market data at national, regional and local levels</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicly available, with more functionality if you create an account. </t>
+    <t>&lt;a href='https://www.nomisweb.co.uk/'&gt;Nomis&lt;/a&gt;</t>
   </si>
   <si>
     <t>Explore Education Statistics</t>
@@ -84,176 +244,20 @@
     <t xml:space="preserve">A range of educational data published by the Department of Education </t>
   </si>
   <si>
-    <t xml:space="preserve">Publicly available </t>
-  </si>
-  <si>
-    <t>Lists useful data sources related to colleges</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.ons.gov.uk/peoplepopulationandcommunity/wellbeing/articles/subnationalindicatorsexplorer/2022-01-06'&gt;ONS&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.aoc.co.uk/research-unit/data-sources'&gt;AOC&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.nomisweb.co.uk/'&gt;Nomis&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/'&gt;EES&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://census.gov.uk/local-authorities'&gt;ONS&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>LA schools scorecard</t>
-  </si>
-  <si>
-    <t>Scorecards display a snapshot of the progress each local authority across England is making towards ensuring there are sufficient, good quality, school places.</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://department-for-education.shinyapps.io/la-school-places-scorecards/?_inputs_&amp;navbar=%22la_scorecards%22&amp;linkQuantityTab=0&amp;linkPreferenceTab=0&amp;phase_choice=%22Primary%22&amp;tabs_tech_notes=%22Quantity%22&amp;LA_choice=%22Barnet%22&amp;linkQualityTab=0&amp;tabs=%22cost%22&amp;linklascorecardsTab=0&amp;linkForecastTab=0&amp;linkCostTab=0'&gt;DfE&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Data​</t>
-  </si>
-  <si>
-    <t>Source​</t>
-  </si>
-  <si>
-    <t>Job quality indicator tables, UK by country, region and local authority</t>
-  </si>
-  <si>
-    <t>HE destination</t>
-  </si>
-  <si>
-    <t>Region of residence after HE</t>
-  </si>
-  <si>
-    <t>FE destination</t>
-  </si>
-  <si>
-    <t>Apprenticeship destination</t>
-  </si>
-  <si>
-    <t>Gross value added (GVA) per hour worked </t>
-  </si>
-  <si>
-    <t>Median wage</t>
-  </si>
-  <si>
-    <t>Population by age</t>
-  </si>
-  <si>
-    <t>Data showing the proportions of 16- and 17-year-olds in education and training and an estimate of those not in education, employment or training (NEET).</t>
+    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/'&gt;Explore Education Statistics&lt;/a&gt;</t>
   </si>
   <si>
     <t>ONS Vacancies by SOC</t>
   </si>
   <si>
     <t>Coming soon</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.beta.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/qualityworkcomponentandcompositetablesuk2018'&gt;Job quality indicator tables, UK - Office for National Statistics (ons.gov.uk)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.ethnicity-facts-figures.service.gov.uk/education-skills-and-training/after-education/destinations-and-earnings-of-graduates-after-higher-education/latest'&gt;Destinations and earnings of graduates after higher education - GOV.UK Ethnicity facts and figures (ethnicity-facts-figures.service.gov.uk)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.hesa.ac.uk/news/16-06-2022/sb263-higher-education-graduate-outcomes-statistics/salary'&gt;Graduate Outcomes 2019/20: Summary Statistics - Graduate salaries and work locations | HESA&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/fast-track/b8aabe3c-5f3c-48b5-929c-8615d57d1d98'&gt;EES&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/further-education-outcome-based-success-measures'&gt;EES&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/labourproductivity/datasets/subregionalproductivitylabourproductivitygvaperhourworkedandgvaperfilledjobindicesbylocalenterprisepartnership'&gt;Subregional productivity: labour productivity indices by economic enterprise region - Office for National Statistics (ons.gov.uk)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.nomisweb.co.uk/datasets/ashe'&gt;ASHE Nomis&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.nomisweb.co.uk/datasets/apsnew'&gt;APS Nomis&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.gov.uk/government/publications/neet-and-participation-local-authority-figures'&gt;NEET and participation: local authority figures - GOV.UK (www.gov.uk)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Employer Skills Survey including hard-to-fill and skill-shortage vacancies, employer skills needed in next 12 months, and percent of employers providing training</t>
-  </si>
-  <si>
-    <t>Get data about people and the communities they live in, includes population, identity, housing, people in or out of work, education and health.</t>
-  </si>
-  <si>
-    <t>Experimental statistics release showing clustering analysis exploring similarities between local authorities in England</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.ons.gov.uk/visualisations/areas/'&gt;ONS&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>ONS area information</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.ons.gov.uk/peoplepopulationandcommunity/wellbeing/articles/clusteringlocalauthoritiesagainstsubnationalindicatorsengland/2023-02-24'&gt;ONS&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>ONS clustering local authorities</t>
-  </si>
-  <si>
-    <t>ONS Labour market profiles</t>
-  </si>
-  <si>
-    <t>Population, employment, and qualification data by Local Authority.</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.nomisweb.co.uk/reports/lmp/la/contents.aspx'&gt;ONS&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List of links to published Local skills improvement plans. </t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.gov.uk/government/publications/designated-employer-representative-bodies/notice-of-designated-employer-representative-bodies'&gt;Department for Education (gov.uk)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/find-statistics/employer-skills-survey/2022'&gt;Department for Education (gov.uk)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.gov.uk/government/publications/ai-analysis-of-local-skills-improvement-plans'&gt;Department for Education (gov.uk)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>UFS AI analysis of local skills improvement plans</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.gov.uk/government/publications/the-impact-of-ai-on-uk-jobs-and-training'&gt;Department for Education (gov.uk)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>UFS impact of AI on UK jobs and training</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://explore-local-statistics.beta.ons.gov.uk/'&gt;ONS&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>ONS Explore local statistics</t>
-  </si>
-  <si>
-    <t>Find, compare and visualise a range statistics about places in the United Kingdom down to ward level</t>
-  </si>
-  <si>
-    <t>UFS dashboards and data</t>
-  </si>
-  <si>
-    <t>Data and research to help understand current and emerging skills gaps and the type of jobs people take after training.</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.gov.uk/government/collections/job-and-skills-data'&gt;DfE&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,16 +311,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF0B0C0C"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF040C28"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0C0C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -333,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -356,38 +383,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -398,29 +399,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -735,187 +745,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455C0F38-06FA-4C4D-8065-41AFD4764DD8}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294FE5EB-664F-452B-B390-7550A06E33A9}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1796875" customWidth="1"/>
+    <col min="3" max="3" width="181.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455C0F38-06FA-4C4D-8065-41AFD4764DD8}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="131.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
+      <c r="C5" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -924,140 +885,187 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACE25F3-3BBD-4BFB-8DFC-B2B552BE112F}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.90625" customWidth="1"/>
+    <col min="1" max="1" width="63.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.26953125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="255.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C6" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C13" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    </row>
+    <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>37</v>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Data/3-4_FeSources/FeSources.xlsx
+++ b/Data/3-4_FeSources/FeSources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-4_FeSources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95DD2B3C-5CAC-43D4-AB03-3CFA2B7C1C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{95DD2B3C-5CAC-43D4-AB03-3CFA2B7C1C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2930B7F6-5721-422C-A149-C958080F7DDB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" firstSheet="2" activeTab="2" xr2:uid="{A5D4C3F6-9CE9-44C0-BBBD-467D1E450A34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{A5D4C3F6-9CE9-44C0-BBBD-467D1E450A34}"/>
   </bookViews>
   <sheets>
     <sheet name="Reports" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>Report</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>&lt;a href='https://www.beta.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/qualityworkcomponentandcompositetablesuk2018'&gt;Job quality indicator tables, UK - Office for National Statistics (ons.gov.uk)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Higeher Education destination</t>
   </si>
   <si>
     <t xml:space="preserve">The data shows what people did after finishing their degree, by ethnicity. It includes people who graduated 1, 3, 5, and 10 years ago (up to March 2020) and the median earnings of graduates in employment. </t>
@@ -247,17 +244,14 @@
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/'&gt;Explore Education Statistics&lt;/a&gt;</t>
   </si>
   <si>
-    <t>ONS Vacancies by SOC</t>
-  </si>
-  <si>
-    <t>Coming soon</t>
+    <t>Higher Education destination</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,13 +286,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -388,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -405,9 +392,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -418,17 +402,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -749,7 +733,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -777,29 +761,29 @@
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -813,7 +797,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -824,36 +808,36 @@
     <col min="4" max="4" width="62.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -864,18 +848,18 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -887,18 +871,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACE25F3-3BBD-4BFB-8DFC-B2B552BE112F}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="63.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.26953125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="255.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="63.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.26953125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="255.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -913,163 +897,154 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="12" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="B10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="13" t="s">
+    </row>
+    <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="13" t="s">
+    </row>
+    <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
